--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Myl9-Cd69.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Myl9-Cd69.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +92,6 @@
   </si>
   <si>
     <t>Cd69</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>12.3789975395569</v>
+        <v>4.897689666666667</v>
       </c>
       <c r="H2">
-        <v>12.3789975395569</v>
+        <v>14.693069</v>
       </c>
       <c r="I2">
-        <v>0.2377308402615018</v>
+        <v>0.07641871990107107</v>
       </c>
       <c r="J2">
-        <v>0.2377308402615018</v>
+        <v>0.07641871990107107</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>16.1386464201241</v>
+        <v>25.462917</v>
       </c>
       <c r="N2">
-        <v>16.1386464201241</v>
+        <v>76.388751</v>
       </c>
       <c r="O2">
-        <v>0.9966023041860947</v>
+        <v>0.5673008489332974</v>
       </c>
       <c r="P2">
-        <v>0.9966023041860947</v>
+        <v>0.5673008489332974</v>
       </c>
       <c r="Q2">
-        <v>199.780264326495</v>
+        <v>124.709465474091</v>
       </c>
       <c r="R2">
-        <v>199.780264326495</v>
+        <v>1122.385189266819</v>
       </c>
       <c r="S2">
-        <v>0.2369231031807092</v>
+        <v>0.04335240467427349</v>
       </c>
       <c r="T2">
-        <v>0.2369231031807092</v>
+        <v>0.04335240467427349</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,185 +584,929 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>12.3789975395569</v>
+        <v>4.897689666666667</v>
       </c>
       <c r="H3">
-        <v>12.3789975395569</v>
+        <v>14.693069</v>
       </c>
       <c r="I3">
-        <v>0.2377308402615018</v>
+        <v>0.07641871990107107</v>
       </c>
       <c r="J3">
-        <v>0.2377308402615018</v>
+        <v>0.07641871990107107</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.055021156536995</v>
+        <v>0.103465</v>
       </c>
       <c r="N3">
-        <v>0.055021156536995</v>
+        <v>0.310395</v>
       </c>
       <c r="O3">
-        <v>0.003397695813905276</v>
+        <v>0.002305147612698247</v>
       </c>
       <c r="P3">
-        <v>0.003397695813905276</v>
+        <v>0.002305147612698247</v>
       </c>
       <c r="Q3">
-        <v>0.6811067613950361</v>
+        <v>0.5067394613616667</v>
       </c>
       <c r="R3">
-        <v>0.6811067613950361</v>
+        <v>4.560655152255</v>
       </c>
       <c r="S3">
-        <v>0.0008077370807926887</v>
+        <v>0.00017615642974541</v>
       </c>
       <c r="T3">
-        <v>0.0008077370807926887</v>
+        <v>0.00017615642974541</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>39.6924860169733</v>
+        <v>4.897689666666667</v>
       </c>
       <c r="H4">
-        <v>39.6924860169733</v>
+        <v>14.693069</v>
       </c>
       <c r="I4">
-        <v>0.7622691597384982</v>
+        <v>0.07641871990107107</v>
       </c>
       <c r="J4">
-        <v>0.7622691597384982</v>
+        <v>0.07641871990107107</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.1386464201241</v>
+        <v>19.22962733333333</v>
       </c>
       <c r="N4">
-        <v>16.1386464201241</v>
+        <v>57.688882</v>
       </c>
       <c r="O4">
-        <v>0.9966023041860947</v>
+        <v>0.4284263233026655</v>
       </c>
       <c r="P4">
-        <v>0.9966023041860947</v>
+        <v>0.4284263233026656</v>
       </c>
       <c r="Q4">
-        <v>640.582997363652</v>
+        <v>94.18074708431757</v>
       </c>
       <c r="R4">
-        <v>640.582997363652</v>
+        <v>847.626723758858</v>
       </c>
       <c r="S4">
-        <v>0.7596792010053857</v>
+        <v>0.03273979119871211</v>
       </c>
       <c r="T4">
-        <v>0.7596792010053857</v>
+        <v>0.03273979119871212</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>4.897689666666667</v>
+      </c>
+      <c r="H5">
+        <v>14.693069</v>
+      </c>
+      <c r="I5">
+        <v>0.07641871990107107</v>
+      </c>
+      <c r="J5">
+        <v>0.07641871990107107</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.08831799999999999</v>
+      </c>
+      <c r="N5">
+        <v>0.264954</v>
+      </c>
+      <c r="O5">
+        <v>0.001967680151338943</v>
+      </c>
+      <c r="P5">
+        <v>0.001967680151338943</v>
+      </c>
+      <c r="Q5">
+        <v>0.4325541559806667</v>
+      </c>
+      <c r="R5">
+        <v>3.892987403826</v>
+      </c>
+      <c r="S5">
+        <v>0.0001503675983400678</v>
+      </c>
+      <c r="T5">
+        <v>0.0001503675983400679</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>12.99303433333333</v>
+      </c>
+      <c r="H6">
+        <v>38.979103</v>
+      </c>
+      <c r="I6">
+        <v>0.2027304951846343</v>
+      </c>
+      <c r="J6">
+        <v>0.2027304951846343</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>25.462917</v>
+      </c>
+      <c r="N6">
+        <v>76.388751</v>
+      </c>
+      <c r="O6">
+        <v>0.5673008489332974</v>
+      </c>
+      <c r="P6">
+        <v>0.5673008489332974</v>
+      </c>
+      <c r="Q6">
+        <v>330.8405548078171</v>
+      </c>
+      <c r="R6">
+        <v>2977.564993270353</v>
+      </c>
+      <c r="S6">
+        <v>0.1150091820229108</v>
+      </c>
+      <c r="T6">
+        <v>0.1150091820229108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>12.99303433333333</v>
+      </c>
+      <c r="H7">
+        <v>38.979103</v>
+      </c>
+      <c r="I7">
+        <v>0.2027304951846343</v>
+      </c>
+      <c r="J7">
+        <v>0.2027304951846343</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.103465</v>
+      </c>
+      <c r="N7">
+        <v>0.310395</v>
+      </c>
+      <c r="O7">
+        <v>0.002305147612698247</v>
+      </c>
+      <c r="P7">
+        <v>0.002305147612698247</v>
+      </c>
+      <c r="Q7">
+        <v>1.344324297298333</v>
+      </c>
+      <c r="R7">
+        <v>12.098918675685</v>
+      </c>
+      <c r="S7">
+        <v>0.0004673237169959931</v>
+      </c>
+      <c r="T7">
+        <v>0.0004673237169959932</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>12.99303433333333</v>
+      </c>
+      <c r="H8">
+        <v>38.979103</v>
+      </c>
+      <c r="I8">
+        <v>0.2027304951846343</v>
+      </c>
+      <c r="J8">
+        <v>0.2027304951846343</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>19.22962733333333</v>
+      </c>
+      <c r="N8">
+        <v>57.688882</v>
+      </c>
+      <c r="O8">
+        <v>0.4284263233026655</v>
+      </c>
+      <c r="P8">
+        <v>0.4284263233026656</v>
+      </c>
+      <c r="Q8">
+        <v>249.8512081592051</v>
+      </c>
+      <c r="R8">
+        <v>2248.660873432846</v>
+      </c>
+      <c r="S8">
+        <v>0.08685508067328158</v>
+      </c>
+      <c r="T8">
+        <v>0.0868550806732816</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>12.99303433333333</v>
+      </c>
+      <c r="H9">
+        <v>38.979103</v>
+      </c>
+      <c r="I9">
+        <v>0.2027304951846343</v>
+      </c>
+      <c r="J9">
+        <v>0.2027304951846343</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.08831799999999999</v>
+      </c>
+      <c r="N9">
+        <v>0.264954</v>
+      </c>
+      <c r="O9">
+        <v>0.001967680151338943</v>
+      </c>
+      <c r="P9">
+        <v>0.001967680151338943</v>
+      </c>
+      <c r="Q9">
+        <v>1.147518806251333</v>
+      </c>
+      <c r="R9">
+        <v>10.327669256262</v>
+      </c>
+      <c r="S9">
+        <v>0.00039890877144592</v>
+      </c>
+      <c r="T9">
+        <v>0.0003989087714459201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.1184113333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.355234</v>
+      </c>
+      <c r="I10">
+        <v>0.001847573678809858</v>
+      </c>
+      <c r="J10">
+        <v>0.001847573678809858</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>25.462917</v>
+      </c>
+      <c r="N10">
+        <v>76.388751</v>
+      </c>
+      <c r="O10">
+        <v>0.5673008489332974</v>
+      </c>
+      <c r="P10">
+        <v>0.5673008489332974</v>
+      </c>
+      <c r="Q10">
+        <v>3.015097952526</v>
+      </c>
+      <c r="R10">
+        <v>27.135881572734</v>
+      </c>
+      <c r="S10">
+        <v>0.001048130116455648</v>
+      </c>
+      <c r="T10">
+        <v>0.001048130116455648</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>39.6924860169733</v>
-      </c>
-      <c r="H5">
-        <v>39.6924860169733</v>
-      </c>
-      <c r="I5">
-        <v>0.7622691597384982</v>
-      </c>
-      <c r="J5">
-        <v>0.7622691597384982</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.055021156536995</v>
-      </c>
-      <c r="N5">
-        <v>0.055021156536995</v>
-      </c>
-      <c r="O5">
-        <v>0.003397695813905276</v>
-      </c>
-      <c r="P5">
-        <v>0.003397695813905276</v>
-      </c>
-      <c r="Q5">
-        <v>2.183926486482373</v>
-      </c>
-      <c r="R5">
-        <v>2.183926486482373</v>
-      </c>
-      <c r="S5">
-        <v>0.002589958733112587</v>
-      </c>
-      <c r="T5">
-        <v>0.002589958733112587</v>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.1184113333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.355234</v>
+      </c>
+      <c r="I11">
+        <v>0.001847573678809858</v>
+      </c>
+      <c r="J11">
+        <v>0.001847573678809858</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.103465</v>
+      </c>
+      <c r="N11">
+        <v>0.310395</v>
+      </c>
+      <c r="O11">
+        <v>0.002305147612698247</v>
+      </c>
+      <c r="P11">
+        <v>0.002305147612698247</v>
+      </c>
+      <c r="Q11">
+        <v>0.01225142860333333</v>
+      </c>
+      <c r="R11">
+        <v>0.11026285743</v>
+      </c>
+      <c r="S11">
+        <v>4.258930054992661E-06</v>
+      </c>
+      <c r="T11">
+        <v>4.258930054992662E-06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.1184113333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.355234</v>
+      </c>
+      <c r="I12">
+        <v>0.001847573678809858</v>
+      </c>
+      <c r="J12">
+        <v>0.001847573678809858</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>19.22962733333333</v>
+      </c>
+      <c r="N12">
+        <v>57.688882</v>
+      </c>
+      <c r="O12">
+        <v>0.4284263233026655</v>
+      </c>
+      <c r="P12">
+        <v>0.4284263233026656</v>
+      </c>
+      <c r="Q12">
+        <v>2.277005812043111</v>
+      </c>
+      <c r="R12">
+        <v>20.493052308388</v>
+      </c>
+      <c r="S12">
+        <v>0.0007915491982432872</v>
+      </c>
+      <c r="T12">
+        <v>0.0007915491982432874</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.1184113333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.355234</v>
+      </c>
+      <c r="I13">
+        <v>0.001847573678809858</v>
+      </c>
+      <c r="J13">
+        <v>0.001847573678809858</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.08831799999999999</v>
+      </c>
+      <c r="N13">
+        <v>0.264954</v>
+      </c>
+      <c r="O13">
+        <v>0.001967680151338943</v>
+      </c>
+      <c r="P13">
+        <v>0.001967680151338943</v>
+      </c>
+      <c r="Q13">
+        <v>0.01045785213733333</v>
+      </c>
+      <c r="R13">
+        <v>0.09412066923599999</v>
+      </c>
+      <c r="S13">
+        <v>3.635434055930429E-06</v>
+      </c>
+      <c r="T13">
+        <v>3.63543405593043E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>46.08104666666666</v>
+      </c>
+      <c r="H14">
+        <v>138.24314</v>
+      </c>
+      <c r="I14">
+        <v>0.7190032112354847</v>
+      </c>
+      <c r="J14">
+        <v>0.7190032112354847</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>25.462917</v>
+      </c>
+      <c r="N14">
+        <v>76.388751</v>
+      </c>
+      <c r="O14">
+        <v>0.5673008489332974</v>
+      </c>
+      <c r="P14">
+        <v>0.5673008489332974</v>
+      </c>
+      <c r="Q14">
+        <v>1173.35786654646</v>
+      </c>
+      <c r="R14">
+        <v>10560.22079891814</v>
+      </c>
+      <c r="S14">
+        <v>0.4078911321196574</v>
+      </c>
+      <c r="T14">
+        <v>0.4078911321196574</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>46.08104666666666</v>
+      </c>
+      <c r="H15">
+        <v>138.24314</v>
+      </c>
+      <c r="I15">
+        <v>0.7190032112354847</v>
+      </c>
+      <c r="J15">
+        <v>0.7190032112354847</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.103465</v>
+      </c>
+      <c r="N15">
+        <v>0.310395</v>
+      </c>
+      <c r="O15">
+        <v>0.002305147612698247</v>
+      </c>
+      <c r="P15">
+        <v>0.002305147612698247</v>
+      </c>
+      <c r="Q15">
+        <v>4.767775493366665</v>
+      </c>
+      <c r="R15">
+        <v>42.90997944029999</v>
+      </c>
+      <c r="S15">
+        <v>0.001657408535901851</v>
+      </c>
+      <c r="T15">
+        <v>0.001657408535901851</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>46.08104666666666</v>
+      </c>
+      <c r="H16">
+        <v>138.24314</v>
+      </c>
+      <c r="I16">
+        <v>0.7190032112354847</v>
+      </c>
+      <c r="J16">
+        <v>0.7190032112354847</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>19.22962733333333</v>
+      </c>
+      <c r="N16">
+        <v>57.688882</v>
+      </c>
+      <c r="O16">
+        <v>0.4284263233026655</v>
+      </c>
+      <c r="P16">
+        <v>0.4284263233026656</v>
+      </c>
+      <c r="Q16">
+        <v>886.1213545299421</v>
+      </c>
+      <c r="R16">
+        <v>7975.092190769479</v>
+      </c>
+      <c r="S16">
+        <v>0.3080399022324285</v>
+      </c>
+      <c r="T16">
+        <v>0.3080399022324285</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>46.08104666666666</v>
+      </c>
+      <c r="H17">
+        <v>138.24314</v>
+      </c>
+      <c r="I17">
+        <v>0.7190032112354847</v>
+      </c>
+      <c r="J17">
+        <v>0.7190032112354847</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.08831799999999999</v>
+      </c>
+      <c r="N17">
+        <v>0.264954</v>
+      </c>
+      <c r="O17">
+        <v>0.001967680151338943</v>
+      </c>
+      <c r="P17">
+        <v>0.001967680151338943</v>
+      </c>
+      <c r="Q17">
+        <v>4.069785879506665</v>
+      </c>
+      <c r="R17">
+        <v>36.62807291555999</v>
+      </c>
+      <c r="S17">
+        <v>0.001414768347497024</v>
+      </c>
+      <c r="T17">
+        <v>0.001414768347497025</v>
       </c>
     </row>
   </sheetData>
